--- a/DMSNewVSale_2025-11-02_17-54.xlsx
+++ b/DMSNewVSale_2025-11-02_17-54.xlsx
@@ -137,6 +137,18 @@
     <t>83.0000</t>
   </si>
   <si>
+    <t>CENTRUM WITH LUTEIN 100 TABS.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>710.00</t>
+  </si>
+  <si>
+    <t>710.0000</t>
+  </si>
+  <si>
     <t>CIDOPHAGE 500MG 10 TAB</t>
   </si>
   <si>
@@ -426,9 +438,6 @@
   </si>
   <si>
     <t>TETRAMERA ANTI HAIR LOSS LOTION</t>
-  </si>
-  <si>
-    <t>0:0</t>
   </si>
   <si>
     <t>320.00</t>
@@ -1529,7 +1538,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1539,14 +1548,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1555,14 +1564,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1572,11 +1581,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>15</v>
@@ -1588,14 +1597,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1628,7 +1637,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1638,14 +1647,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1654,14 +1663,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1671,14 +1680,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1687,14 +1696,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1704,11 +1713,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>15</v>
@@ -1720,14 +1729,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1760,7 +1769,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1770,14 +1779,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1786,14 +1795,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1810,7 +1819,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1826,7 +1835,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1836,14 +1845,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1852,14 +1861,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1869,11 +1878,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>15</v>
@@ -1885,14 +1894,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1902,14 +1911,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1918,14 +1927,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1942,7 +1951,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1958,13 +1967,13 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -1991,21 +2000,21 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>15</v>
@@ -2017,14 +2026,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2041,7 +2050,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2050,14 +2059,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2074,7 +2083,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2090,7 +2099,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2100,14 +2109,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2116,7 +2125,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2133,14 +2142,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2149,14 +2158,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2166,11 +2175,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>15</v>
@@ -2182,14 +2191,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2199,14 +2208,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2215,14 +2224,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>111</v>
+        <v>25</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2239,7 +2248,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2272,7 +2281,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2288,7 +2297,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>11</v>
+        <v>119</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2298,14 +2307,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2314,20 +2323,20 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>122</v>
+        <v>11</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2338,7 +2347,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2360,7 +2369,7 @@
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2371,7 +2380,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2387,7 +2396,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2397,14 +2406,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>17</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>18</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2413,14 +2422,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2430,14 +2439,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>17</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>18</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2446,14 +2455,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2463,14 +2472,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>45</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2479,7 +2488,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2496,14 +2505,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>137</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2512,20 +2521,20 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2552,13 +2561,13 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>139</v>
+        <v>43</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -2585,7 +2594,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2618,13 +2627,13 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>115</v>
+        <v>19</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -2651,13 +2660,13 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>25</v>
+        <v>119</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -2665,7 +2674,7 @@
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>51</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>19</v>
@@ -2677,28 +2686,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>154</v>
+        <v>25</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>19</v>
@@ -2710,28 +2719,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>19</v>
@@ -2743,31 +2752,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>160</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2776,31 +2785,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>162</v>
+        <v>43</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>25</v>
+        <v>163</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2809,31 +2818,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>43</v>
+        <v>165</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2842,28 +2851,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>167</v>
+        <v>47</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>19</v>
@@ -2882,21 +2891,21 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>115</v>
+        <v>170</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>19</v>
@@ -2908,28 +2917,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>19</v>
@@ -2941,28 +2950,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>139</v>
+        <v>43</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>19</v>
@@ -2981,13 +2990,13 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
@@ -3014,61 +3023,94 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>178</v>
+        <v>19</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>152</v>
+        <v>178</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>51</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>19</v>
       </c>
     </row>
-    <row r="63" ht="25.5" customHeight="1">
-      <c r="N63" s="13">
-        <v>3317.3200000000002</v>
-      </c>
-      <c r="O63" s="13"/>
-      <c r="P63" s="13"/>
-      <c r="Q63" s="13"/>
-    </row>
-    <row r="64" ht="16.5" customHeight="1">
-      <c t="s" r="A64" s="14">
-        <v>179</v>
-      </c>
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c t="s" r="G64" s="15">
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
         <v>180</v>
       </c>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15"/>
-      <c r="J64" s="16"/>
-      <c t="s" r="K64" s="17">
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
         <v>181</v>
       </c>
-      <c r="L64" s="17"/>
-      <c r="M64" s="17"/>
-      <c r="N64" s="17"/>
-      <c r="O64" s="17"/>
-      <c r="P64" s="17"/>
-      <c r="Q64" s="17"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>92</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
+        <v>155</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
+        <v>55</v>
+      </c>
+      <c t="s" r="Q63" s="12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="64" ht="26.25" customHeight="1">
+      <c r="N64" s="13">
+        <v>4027.3200000000002</v>
+      </c>
+      <c r="O64" s="13"/>
+      <c r="P64" s="13"/>
+      <c r="Q64" s="13"/>
+    </row>
+    <row r="65" ht="16.5" customHeight="1">
+      <c t="s" r="A65" s="14">
+        <v>182</v>
+      </c>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c t="s" r="G65" s="15">
+        <v>183</v>
+      </c>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="16"/>
+      <c t="s" r="K65" s="17">
+        <v>184</v>
+      </c>
+      <c r="L65" s="17"/>
+      <c r="M65" s="17"/>
+      <c r="N65" s="17"/>
+      <c r="O65" s="17"/>
+      <c r="P65" s="17"/>
+      <c r="Q65" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="292">
+  <mergeCells count="297">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3357,10 +3399,15 @@
     <mergeCell ref="H62:K62"/>
     <mergeCell ref="L62:M62"/>
     <mergeCell ref="N62:O62"/>
-    <mergeCell ref="N63:Q63"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="K64:Q64"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="N64:Q64"/>
+    <mergeCell ref="A65:F65"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="K65:Q65"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
